--- a/ss/SES面談技術者側議事録_YangXiao.xlsx
+++ b/ss/SES面談技術者側議事録_YangXiao.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\ss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB6BDF-7B33-402A-ABA7-8C0D728E9271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465E4EE-F724-4F80-BC1B-3B6A0F80C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF6F1BDC-33A4-4FFF-8D93-F6ABEC379DAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="20250225" sheetId="3" r:id="rId1"/>
-    <sheet name="20250220" sheetId="2" r:id="rId2"/>
+    <sheet name="20250225_一回決" sheetId="3" r:id="rId1"/>
+    <sheet name="20250220_3-1_日本語チェック" sheetId="2" r:id="rId2"/>
     <sheet name="例文" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1655,6 +1655,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1713,7 +1719,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1721,6 +1727,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1736,9 +1745,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,12 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2207,98 +2207,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="65">
         <v>45713</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2313,18 +2313,18 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -2339,1399 +2339,603 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A57:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A28:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G71"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="63">
-        <v>45708</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3774,6 +2978,802 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="65">
+        <v>45708</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3800,92 +3800,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="65">
         <v>45695</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -3909,13 +3909,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -3930,604 +3930,623 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B2:C2"/>
@@ -4544,25 +4563,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ss/SES面談技術者側議事録_YangXiao.xlsx
+++ b/ss/SES面談技術者側議事録_YangXiao.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\ss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465E4EE-F724-4F80-BC1B-3B6A0F80C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D169348-F26D-4D26-A695-82E4C62309C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF6F1BDC-33A4-4FFF-8D93-F6ABEC379DAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="20250225_一回決" sheetId="3" r:id="rId1"/>
-    <sheet name="20250220_3-1_日本語チェック" sheetId="2" r:id="rId2"/>
-    <sheet name="例文" sheetId="1" r:id="rId3"/>
+    <sheet name="20250225_2-1" sheetId="6" r:id="rId1"/>
+    <sheet name="20250220_3-2" sheetId="4" r:id="rId2"/>
+    <sheet name="20250225_一回決" sheetId="3" r:id="rId3"/>
+    <sheet name="20250220_3-1_日本語チェック" sheetId="2" r:id="rId4"/>
+    <sheet name="例文" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>SES面談技術者側議事録</t>
     <rPh sb="3" eb="5">
@@ -1090,6 +1092,445 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>全員数：7人</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国人数：7人</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:30~18:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットバンキングシステムの開発
+場所：品川オンサイトor在宅リモートワーク
+期間：2025年4月～　※長期の予定
+要求スキル：
+Javaによる中大規模Webシステム開発の経験
+開発工程（PGからテスト）を主体的に対応して完遂できる方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めまして、楊と申します。本日はお時間をいただき、ありがとうございます。
+私は中国の出身で、9年前に留学生として日本に来ました。日本の大学を卒業した後、IT業界で仕事を続けております。
+主に使用しているプログラミング言語はJavaです。
+最近参画した案件について、少し説明させていただきます。マイナンバー関連システムのサブシステム改善を担当しており、確定申告や年末調整での書類管理システムです。担当業務は詳細設計から実装、単体テスト、結合テスト、総合テストおよびリリース関連まで幅広く携わってきました。
+その他部分の経験もできており、もし機会を頂けるようでしたら、今後もチャレンジしていきたいと思います。
+自己紹介は以上になります。どうぞよろしくお願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装から保守までできる方を探してます。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・聞かれていた質問は回答ができて、特に問題がないと思われます。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:Linuxは手順なしでできているか?
+A:問題がなくできてます。
+Q:チームリーダーの経験があるか？
+A:チームリーダーの経験がないですが、メンバーと三人で結合テストする経験があり、その時に私がリーダーとして、テストの進捗を把握し、順調に進んでいることを管理していました。
+Q:報告の相手は取引先のリーダーか、エンド様のリーダーか？
+A:取引先のリーダーでした。
+Q:保守チーム以外はチームがあるか？
+A:保守チーム以外は開発チーム、バッチチームがあります。
+Q:自分自身は得意分野が何でしょうか。
+A:実装の方が得意と思われます。
+Q:リモートの時にどうやってメンバーとコミニケションをしてるか？
+A:zoomで画面を共有しながら、打ち合わせしてます。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サンニン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="234" eb="238">
+      <t>ジブンジシン</t>
+    </rPh>
+    <rPh sb="239" eb="243">
+      <t>トクイブンヤ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="321" eb="322">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員数：5人</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国人数：5人</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月から</t>
+    <rPh sb="1" eb="2">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19:30~20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行員がタブレットでお客さんと一緒に保険の申し込みを行うシステム
+■スキル
+3年以上基本設計经验
+　・外部設計～テストまでの工程経験
+　・コミュニケーション能力
+　・何かしらの保険知識（生保だと尚可）
+　・結合／総合テストの設計経験
+■期間：2025/3～
+■場所：西新宿(テレワークなし)
+■面談：1ー2回</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:フレームワークは何を使用してますでしょうか。
+A:SpringBoot</t>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・聞かれていた質問はほぼ回答ができていました。
+・コミニケションできており、認識合わない所がなかったと思われます。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:APIの設計経験がありますでしょうか。
+A:JavaはJDBCのAPIを使用して、データベースからデータの取得や更新などの操作を行うことができます。
+Q:Springでのコンフィグ設定経験があるか？
+A:回答できませんでした。</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:問い合わせについて状態の管理があるか？
+A:そのような機能がないです。
+Q:システムを使用している方は誰か？
+A:企業として使用している方もいらっしゃいます、一般人の方もいらっしゃいます。
+Q:どの分野が得意か？
+Ａ:詳細設計から実装、テストまでが携わっております、自分自身は実装の方得意と思います。
+Q:想定外の状態は発生したら、どうする？
+A:フロントエンド側がデータのチェックを行い、想定外の場合はバックエンドにリクエストしないし、フロントエンド側も想定外のロジックチェックをしてます。</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>イッパンジン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="155" eb="158">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="197" eb="200">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="230" eb="233">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・面談担当の方は中国技術者でした、すごく細かい質問を聞かれました。</t>
+    <rPh sb="1" eb="3">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1612,7 +2053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,6 +2102,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1712,64 +2156,103 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1784,44 +2267,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2185,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E87A7-D1EC-4FF3-87CD-EB970394E01C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2207,92 +2654,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="62">
         <v>45713</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="E3" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54" t="s">
+      <c r="B6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2304,7 +2751,7 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2313,18 +2760,18 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="71" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -2339,603 +2786,2195 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="39" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="39" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="39" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="A28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="74.400000000000006" customHeight="1" thickBot="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160DEAFE-421F-4503-90B9-73473E99307E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="62">
+        <v>45713</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="158.4" customHeight="1" thickBot="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="62">
+        <v>45713</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2982,7 +5021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3005,92 +5044,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="62">
         <v>45708</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -3114,13 +5153,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -3135,603 +5174,603 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3777,7 +5816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC97444D-42B8-4133-88F7-C58F824F9138}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3800,92 +5839,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="62">
         <v>45695</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -3909,13 +5948,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -3930,601 +5969,601 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/ss/SES面談技術者側議事録_YangXiao.xlsx
+++ b/ss/SES面談技術者側議事録_YangXiao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\ss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D169348-F26D-4D26-A695-82E4C62309C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E8E3E-503B-4AED-8EBC-41CF32A8D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF6F1BDC-33A4-4FFF-8D93-F6ABEC379DAA}"/>
   </bookViews>
@@ -1390,37 +1390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q:APIの設計経験がありますでしょうか。
-A:JavaはJDBCのAPIを使用して、データベースからデータの取得や更新などの操作を行うことができます。
-Q:Springでのコンフィグ設定経験があるか？
-A:回答できませんでした。</t>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Q:問い合わせについて状態の管理があるか？
 A:そのような機能がないです。
 Q:システムを使用している方は誰か？
@@ -1528,6 +1497,37 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:APIの設計経験がありますでしょうか。
+A:JavaはJDBCのAPIを使用して、データベースからデータの取得や更新などの操作を行うことができます。
+Q:Springでのコンフィグ設定経験があるか？
+A:経験がありませんでした。</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケイケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2053,7 +2053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,6 +2156,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,38 +2216,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2254,21 +2266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,60 +2651,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="66">
         <v>45713</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
@@ -2715,12 +2712,12 @@
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
@@ -2728,18 +2725,18 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="68" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2760,7 +2757,7 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2786,7 +2783,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
@@ -2803,157 +2800,157 @@
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" ht="39" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="39" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="39" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
@@ -2967,60 +2964,60 @@
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" ht="74.400000000000006" customHeight="1" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
@@ -3178,7 +3175,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="18"/>
@@ -3245,802 +3242,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A57:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A28:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160DEAFE-421F-4503-90B9-73473E99307E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G71"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="62">
-        <v>45713</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7" ht="158.4" customHeight="1" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -4223,15 +3425,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160DEAFE-421F-4503-90B9-73473E99307E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4246,60 +3448,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="E2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="66">
         <v>45713</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
+      <c r="E3" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
@@ -4307,12 +3509,12 @@
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
@@ -4320,18 +3522,18 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="68" t="s">
+      <c r="B6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -4343,7 +3545,7 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -4352,9 +3554,7 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A8" s="27"/>
@@ -4378,7 +3578,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
@@ -4395,157 +3595,157 @@
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
@@ -4559,60 +3759,60 @@
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" ht="158.4" customHeight="1" thickBot="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
@@ -4627,7 +3827,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -4694,7 +3894,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4770,7 +3970,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="33" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="18"/>
@@ -4837,803 +4037,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A28:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A57:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G71"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="62">
-        <v>45708</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -5816,6 +4220,1599 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="66">
+        <v>45713</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A21" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="66">
+        <v>45708</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC97444D-42B8-4133-88F7-C58F824F9138}">
   <sheetPr>
@@ -5839,60 +5836,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="66">
         <v>45695</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
@@ -5900,12 +5897,12 @@
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
@@ -5913,18 +5910,18 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="68" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -5969,7 +5966,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
@@ -5986,155 +5983,155 @@
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="46"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
@@ -6148,60 +6145,60 @@
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
@@ -6567,25 +6564,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B2:C2"/>
@@ -6602,6 +6580,25 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ss/SES面談技術者側議事録_YangXiao.xlsx
+++ b/ss/SES面談技術者側議事録_YangXiao.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\ss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E8E3E-503B-4AED-8EBC-41CF32A8D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23615558-592F-4F7F-83C6-437BBD1429CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF6F1BDC-33A4-4FFF-8D93-F6ABEC379DAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="20250225_2-1" sheetId="6" r:id="rId1"/>
-    <sheet name="20250220_3-2" sheetId="4" r:id="rId2"/>
-    <sheet name="20250225_一回決" sheetId="3" r:id="rId3"/>
-    <sheet name="20250220_3-1_日本語チェック" sheetId="2" r:id="rId4"/>
-    <sheet name="例文" sheetId="1" r:id="rId5"/>
+    <sheet name="20250220_3-3" sheetId="7" r:id="rId1"/>
+    <sheet name="20250225_2-1" sheetId="6" r:id="rId2"/>
+    <sheet name="20250220_3-2" sheetId="4" r:id="rId3"/>
+    <sheet name="20250225_一回決" sheetId="3" r:id="rId4"/>
+    <sheet name="20250220_3-1_日本語チェック" sheetId="2" r:id="rId5"/>
+    <sheet name="例文" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
   <si>
     <t>SES面談技術者側議事録</t>
     <rPh sb="3" eb="5">
@@ -1531,6 +1532,122 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・エンド様での顔合わせらしいですので、特に問題がないと思います。</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カオア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q:基本設計書での作成経験があるか？
+A:一人称で作成した経験がないですが、仕様変更が発生した場合、基本設計書の修正経験がありです。
+A:性能テストの経験があるか？
+Q:現在の案件は他のメンバーが性能テストを担当してますので、私は確かに経験がないです。
+A:IT仕事の年数は？
+Q:5年くらいでした。</t>
+    <rPh sb="2" eb="7">
+      <t>キホンセッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サクセイケイケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イチニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="55">
+      <t>キホンセッケイショ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・詳細設計から保守までできる方を探してます。</t>
+    <rPh sb="1" eb="5">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1622,7 +1739,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -2053,7 +2176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2105,36 +2228,6 @@
     <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,90 +2236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2266,6 +2275,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2629,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E87A7-D1EC-4FF3-87CD-EB970394E01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE3783-630A-48F8-BFA1-B7E1603FEBE9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2651,92 +2780,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66">
-        <v>45713</v>
-      </c>
-      <c r="C3" s="67"/>
+      <c r="B3" s="28">
+        <v>45714</v>
+      </c>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2748,27 +2877,25 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -2783,25 +2910,25 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -2829,585 +2956,560 @@
       <c r="F13" s="52"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="39" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="39" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="39" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A21" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="A28" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="74.400000000000006" customHeight="1" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+      <c r="A42" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A28:G33"/>
-    <mergeCell ref="B34:G34"/>
     <mergeCell ref="A57:G63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
@@ -3418,6 +3520,31 @@
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="A50:G55"/>
     <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3426,14 +3553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160DEAFE-421F-4503-90B9-73473E99307E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E87A7-D1EC-4FF3-87CD-EB970394E01C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G19"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3448,92 +3575,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="28">
         <v>45713</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="B6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -3554,16 +3681,18 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -3578,25 +3707,25 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -3624,557 +3753,557 @@
       <c r="F13" s="52"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+    <row r="14" spans="1:7" ht="39" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="39" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="39" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A21" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="A28" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="158.4" customHeight="1" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" ht="74.400000000000006" customHeight="1" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+      <c r="A42" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4221,14 +4350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160DEAFE-421F-4503-90B9-73473E99307E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4243,92 +4372,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="28">
         <v>45713</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="B6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -4340,7 +4469,7 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -4349,18 +4478,16 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -4375,18 +4502,18 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
@@ -4421,1353 +4548,557 @@
       <c r="F13" s="52"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="115.8" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+    <row r="14" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="37.200000000000003" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A21" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="A28" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" ht="158.4" customHeight="1" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+      <c r="A42" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A57:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A28:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G71"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="66">
-        <v>45708</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -5813,7 +5144,1600 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8ADD6-D374-4951-B0F1-1FC197B46CA5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45713</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="115.8" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="115.8" customHeight="1" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53883DC1-7B25-4B7A-88A2-41DB9A4F87C0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" thickBot="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45708</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" ht="308.39999999999998" customHeight="1" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A57:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A28:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="2" orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC97444D-42B8-4133-88F7-C58F824F9138}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5836,92 +6760,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="28">
         <v>45695</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -5945,13 +6869,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -5966,18 +6890,18 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
@@ -6013,557 +6937,576 @@
       <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="39"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
     </row>
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
     </row>
     <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A65:G71"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A42:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A14:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B2:C2"/>
@@ -6580,25 +7523,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A14:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A65:G71"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A42:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G55"/>
-    <mergeCell ref="B56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
